--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calca-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Calca-Ramp1.xlsx
@@ -534,10 +534,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4680303333333333</v>
+        <v>0.41903</v>
       </c>
       <c r="H2">
-        <v>1.404091</v>
+        <v>1.25709</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.245257666666666</v>
+        <v>2.245257666666667</v>
       </c>
       <c r="N2">
-        <v>6.735772999999999</v>
+        <v>6.735773</v>
       </c>
       <c r="O2">
-        <v>0.3168027225634116</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="P2">
-        <v>0.3168027225634117</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="Q2">
-        <v>1.050848694149222</v>
+        <v>0.9408303200633333</v>
       </c>
       <c r="R2">
-        <v>9.457638247342999</v>
+        <v>8.467472880569998</v>
       </c>
       <c r="S2">
-        <v>0.3168027225634116</v>
+        <v>0.3514914311161597</v>
       </c>
       <c r="T2">
-        <v>0.3168027225634117</v>
+        <v>0.3514914311161597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4680303333333333</v>
+        <v>0.41903</v>
       </c>
       <c r="H3">
-        <v>1.404091</v>
+        <v>1.25709</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8080983333333335</v>
+        <v>0.5184663333333334</v>
       </c>
       <c r="N3">
-        <v>2.424295</v>
+        <v>1.555399</v>
       </c>
       <c r="O3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="P3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="Q3">
-        <v>0.3782145323161112</v>
+        <v>0.2172529476566667</v>
       </c>
       <c r="R3">
-        <v>3.403930790845</v>
+        <v>1.95527652891</v>
       </c>
       <c r="S3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
       <c r="T3">
-        <v>0.1140215467915659</v>
+        <v>0.08116506011509646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4680303333333333</v>
+        <v>0.41903</v>
       </c>
       <c r="H4">
-        <v>1.404091</v>
+        <v>1.25709</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.033886333333334</v>
+        <v>3.624077999999999</v>
       </c>
       <c r="N4">
-        <v>12.101659</v>
+        <v>10.872234</v>
       </c>
       <c r="O4">
-        <v>0.5691757306450225</v>
+        <v>0.5673435087687438</v>
       </c>
       <c r="P4">
-        <v>0.5691757306450225</v>
+        <v>0.567343508768744</v>
       </c>
       <c r="Q4">
-        <v>1.887981165218778</v>
+        <v>1.51859740434</v>
       </c>
       <c r="R4">
-        <v>16.991830486969</v>
+        <v>13.66737663906</v>
       </c>
       <c r="S4">
-        <v>0.5691757306450225</v>
+        <v>0.5673435087687438</v>
       </c>
       <c r="T4">
-        <v>0.5691757306450225</v>
+        <v>0.567343508768744</v>
       </c>
     </row>
   </sheetData>
